--- a/inputdata/processed/Tables_new/Taxa_table.xlsx
+++ b/inputdata/processed/Tables_new/Taxa_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Family_microbiome\inputdata\processed\Tables new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Family_microbiome\inputdata\processed\Tables_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADDD0D44-410B-4FBE-9FA8-79696148D415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885529B-C72C-4A7D-8D61-88ECF70D115B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5063B62-84E6-4B14-BDAE-C0106EBF4AA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5063B62-84E6-4B14-BDAE-C0106EBF4AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8766,8 +8766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BFEA50-FD1A-4231-B70E-0C41251C96A3}">
   <dimension ref="A1:G1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
